--- a/inst/results/BMF_computation_PCB_ng_glw/3.BMF_TL_species_PCB_ng_glw_summarised.xlsx
+++ b/inst/results/BMF_computation_PCB_ng_glw/3.BMF_TL_species_PCB_ng_glw_summarised.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -667,6 +667,38 @@
         <v>1.36</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CB187</t>
+        </is>
+      </c>
+      <c r="B20">
+        <v>0.66</v>
+      </c>
+      <c r="C20">
+        <v>0.84</v>
+      </c>
+      <c r="D20">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CB194</t>
+        </is>
+      </c>
+      <c r="B21">
+        <v>0.5</v>
+      </c>
+      <c r="C21">
+        <v>0.66</v>
+      </c>
+      <c r="D21">
+        <v>1.14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
